--- a/notes/Indicators for the Dashboard.xlsx
+++ b/notes/Indicators for the Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dash\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D53BB44-DDDF-4468-96F3-E8956DF256CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752FBDC-BEF9-42A7-9A6C-572B49B82B5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="591">
   <si>
     <t>1. Human Resource Breakdown by Salary Scale and Seniority</t>
   </si>
@@ -1801,6 +1801,9 @@
   </si>
   <si>
     <t>Indicator</t>
+  </si>
+  <si>
+    <t>Female Percentage</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +1999,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2104,6 +2107,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2125,17 +2134,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2591,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:E28"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2603,25 +2624,28 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="74"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>39</v>
@@ -2632,8 +2656,9 @@
       <c r="D5" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="75"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>42</v>
       </c>
@@ -2647,8 +2672,9 @@
         <f>B6+C6</f>
         <v>314501</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="76"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
@@ -2661,8 +2687,9 @@
       <c r="D7" s="23">
         <v>41.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="77"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>44</v>
       </c>
@@ -2675,8 +2702,9 @@
       <c r="D8" s="23">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -2689,8 +2717,9 @@
       <c r="D9" s="23">
         <v>14.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="77"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>46</v>
       </c>
@@ -2706,8 +2735,9 @@
         <f t="shared" si="0"/>
         <v>168.96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="76"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>47</v>
       </c>
@@ -2720,20 +2750,22 @@
       <c r="D11" s="23">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="E11" s="77"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
@@ -2744,10 +2776,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2760,12 +2795,16 @@
       <c r="D17" s="30">
         <v>34774</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
+        <f>B17/D17*100</f>
+        <v>47.052395467878299</v>
+      </c>
+      <c r="F17" s="36">
         <f>D17/D$28</f>
         <v>0.110568805822557</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2778,12 +2817,16 @@
       <c r="D18" s="30">
         <v>58854</v>
       </c>
-      <c r="E18" s="36">
-        <f t="shared" ref="E18:E27" si="1">D18/D$28</f>
+      <c r="E18" s="30">
+        <f t="shared" ref="E18:E27" si="1">B18/D18*100</f>
+        <v>39.450164814626028</v>
+      </c>
+      <c r="F18" s="36">
+        <f t="shared" ref="F18:F27" si="2">D18/D$28</f>
         <v>0.18713454011275005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2796,12 +2839,16 @@
       <c r="D19" s="30">
         <v>59425</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <f t="shared" si="1"/>
+        <v>39.33529659234329</v>
+      </c>
+      <c r="F19" s="36">
+        <f t="shared" si="2"/>
         <v>0.18895011462602662</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2814,12 +2861,16 @@
       <c r="D20" s="30">
         <v>55218</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="30">
         <f t="shared" si="1"/>
+        <v>39.307834401825495</v>
+      </c>
+      <c r="F20" s="36">
+        <f t="shared" si="2"/>
         <v>0.17557336860614114</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2832,12 +2883,16 @@
       <c r="D21" s="30">
         <v>46302</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="30">
         <f t="shared" si="1"/>
+        <v>34.778195326335798</v>
+      </c>
+      <c r="F21" s="36">
+        <f t="shared" si="2"/>
         <v>0.14722369722194842</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2850,12 +2905,16 @@
       <c r="D22" s="30">
         <v>35771</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="30">
         <f t="shared" si="1"/>
+        <v>28.305051578093988</v>
+      </c>
+      <c r="F22" s="36">
+        <f t="shared" si="2"/>
         <v>0.11373890703050228</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>55</v>
       </c>
@@ -2868,12 +2927,16 @@
       <c r="D23" s="30">
         <v>9827</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="30">
         <f t="shared" si="1"/>
+        <v>27.760252365930597</v>
+      </c>
+      <c r="F23" s="36">
+        <f t="shared" si="2"/>
         <v>3.1246323541101618E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>56</v>
       </c>
@@ -2886,12 +2949,16 @@
       <c r="D24" s="30">
         <v>2737</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="30">
         <f t="shared" si="1"/>
+        <v>28.059919620021923</v>
+      </c>
+      <c r="F24" s="36">
+        <f t="shared" si="2"/>
         <v>8.7026750312399637E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -2904,12 +2971,16 @@
       <c r="D25" s="30">
         <v>4745</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="30">
         <f t="shared" si="1"/>
+        <v>29.820864067439413</v>
+      </c>
+      <c r="F25" s="36">
+        <f t="shared" si="2"/>
         <v>1.5087392408927158E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -2922,12 +2993,16 @@
       <c r="D26" s="30">
         <v>3652</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="30">
         <f t="shared" si="1"/>
+        <v>30.832420591456739</v>
+      </c>
+      <c r="F26" s="36">
+        <f t="shared" si="2"/>
         <v>1.1612045748662167E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2940,28 +3015,33 @@
       <c r="D27" s="30">
         <v>3196</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="30">
         <f t="shared" si="1"/>
+        <v>24.436795994993744</v>
+      </c>
+      <c r="F27" s="36">
+        <f t="shared" si="2"/>
         <v>1.016212985014356E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="33">
-        <f t="shared" ref="B28:D28" si="2">SUM(B17:B27)</f>
+        <f t="shared" ref="B28:D28" si="3">SUM(B17:B27)</f>
         <v>117706</v>
       </c>
       <c r="C28" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196795</v>
       </c>
       <c r="D28" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>314501</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2975,30 +3055,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -3011,11 +3092,14 @@
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -3028,12 +3112,16 @@
       <c r="D4" s="3">
         <v>19</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="30">
+        <f>B4/D4*100</f>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="F4" s="4">
         <f>D4/D$16</f>
         <v>6.0413162438275239E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -3046,12 +3134,16 @@
       <c r="D5" s="3">
         <v>378</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E15" si="0">D5/D$16</f>
+      <c r="E5" s="30">
+        <f t="shared" ref="E5:E15" si="0">B5/D5*100</f>
+        <v>28.835978835978835</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F15" si="1">D5/D$16</f>
         <v>1.2019039685088441E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -3064,12 +3156,16 @@
       <c r="D6" s="3">
         <v>1257</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
+        <v>20.445505171042164</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
         <v>3.9968076413111567E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3082,12 +3178,16 @@
       <c r="D7" s="3">
         <v>1416</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
+        <v>18.432203389830509</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>4.5023704217156705E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -3100,12 +3200,16 @@
       <c r="D8" s="3">
         <v>3158</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
+        <v>31.063964534515513</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>1.004130352526701E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3118,12 +3222,16 @@
       <c r="D9" s="3">
         <v>6083</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="30">
         <f t="shared" si="0"/>
+        <v>30.182475752096003</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>1.9341750900633066E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -3136,12 +3244,16 @@
       <c r="D10" s="3">
         <v>33156</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="30">
         <f t="shared" si="0"/>
+        <v>31.822294607310891</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>0.10542414809491862</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3154,12 +3266,16 @@
       <c r="D11" s="3">
         <v>45001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="30">
         <f t="shared" si="0"/>
+        <v>34.263683029266019</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
         <v>0.14308698541499074</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -3172,12 +3288,16 @@
       <c r="D12" s="3">
         <v>26554</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="30">
         <f t="shared" si="0"/>
+        <v>35.896663402877152</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
         <v>8.4432163967682133E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -3190,12 +3310,16 @@
       <c r="D13" s="3">
         <v>162228</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="30">
         <f t="shared" si="0"/>
+        <v>40.92388490272949</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
         <v>0.51582665873876399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3208,12 +3332,16 @@
       <c r="D14" s="3">
         <v>23321</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="30">
         <f t="shared" si="0"/>
+        <v>36.580764118176752</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
         <v>7.4152387432790359E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -3226,12 +3354,16 @@
       <c r="D15" s="3">
         <v>11930</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="30">
         <f t="shared" si="0"/>
+        <v>32.129086336965635</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
         <v>3.7933106730980187E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <f>SUM(B4:B15)</f>
@@ -3246,6 +3378,7 @@
         <v>314501</v>
       </c>
       <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3257,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3268,25 +3401,26 @@
     <col min="1" max="1" width="35.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="46" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="66"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="42"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>19</v>
@@ -3297,17 +3431,18 @@
       <c r="D2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
@@ -3323,20 +3458,21 @@
         <f>SUM(D14:D19)</f>
         <v>233909</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="43"/>
+      <c r="F3" s="36">
         <f>D3/D$8</f>
         <v>0.74374644277760638</v>
       </c>
-      <c r="F3" s="49">
-        <f>SUM(F14:F19)</f>
+      <c r="G3" s="49">
+        <f>SUM(G14:G19)</f>
         <v>2115556041000</v>
       </c>
-      <c r="G3" s="31">
-        <f>F3/F$8</f>
+      <c r="H3" s="31">
+        <f>G3/G$8</f>
         <v>0.74180151462328814</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
@@ -3352,20 +3488,21 @@
         <f>SUM(D24:D26)</f>
         <v>8765</v>
       </c>
-      <c r="E4" s="36">
-        <f t="shared" ref="E4:E6" si="0">D4/D$8</f>
+      <c r="E4" s="43"/>
+      <c r="F4" s="36">
+        <f t="shared" ref="F4:F6" si="0">D4/D$8</f>
         <v>2.7869545724814867E-2</v>
       </c>
-      <c r="F4" s="49">
-        <f>SUM(F24:F26)</f>
+      <c r="G4" s="49">
+        <f>SUM(G24:G26)</f>
         <v>183519405840</v>
       </c>
-      <c r="G4" s="31">
-        <f t="shared" ref="G4:G7" si="1">F4/F$8</f>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H7" si="1">G4/G$8</f>
         <v>6.4349499883977743E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -3381,20 +3518,21 @@
         <f>SUM(D20:D23)</f>
         <v>71814</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="43"/>
+      <c r="F5" s="36">
         <f t="shared" si="0"/>
         <v>0.22834267617591042</v>
       </c>
-      <c r="F5" s="49">
-        <f>SUM(F20:F23)</f>
+      <c r="G5" s="49">
+        <f>SUM(G20:G23)</f>
         <v>552784447860</v>
       </c>
-      <c r="G5" s="31">
+      <c r="H5" s="31">
         <f t="shared" si="1"/>
         <v>0.19382910815679311</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
@@ -3410,32 +3548,34 @@
         <f>SUM(D27:D31)</f>
         <v>13</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="43"/>
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>4.1335321668293581E-5</v>
       </c>
-      <c r="F6" s="49">
-        <f>SUM(F27:F31)</f>
+      <c r="G6" s="49">
+        <f>SUM(G27:G31)</f>
         <v>56688504</v>
       </c>
-      <c r="G6" s="31">
+      <c r="H6" s="31">
         <f t="shared" si="1"/>
         <v>1.9877335940980789E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="43"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="31">
+      <c r="E7" s="43"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>41</v>
       </c>
@@ -3444,33 +3584,35 @@
         <v>117706</v>
       </c>
       <c r="C8" s="41">
-        <f t="shared" ref="C8:F8" si="2">SUM(C3:C6)</f>
+        <f t="shared" ref="C8:G8" si="2">SUM(C3:C6)</f>
         <v>196795</v>
       </c>
       <c r="D8" s="43">
         <f t="shared" si="2"/>
         <v>314501</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="43">
+      <c r="E8" s="43"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="43">
         <f t="shared" si="2"/>
         <v>2851916583204</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
@@ -3481,14 +3623,17 @@
       <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="G13" s="44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>65</v>
       </c>
@@ -3502,15 +3647,19 @@
         <f>B14+C14</f>
         <v>233772</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="30">
+        <f>B14/D14*100</f>
+        <v>36.846585562000584</v>
+      </c>
+      <c r="F14" s="7">
         <v>176198964719</v>
       </c>
-      <c r="F14" s="47">
-        <f>E14*12</f>
+      <c r="G14" s="47">
+        <f>F14*12</f>
         <v>2114387576628</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>66</v>
       </c>
@@ -3524,15 +3673,19 @@
         <f t="shared" ref="D15:D31" si="3">B15+C15</f>
         <v>13</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="30">
+        <f t="shared" ref="E15:E31" si="4">B15/D15*100</f>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="F15" s="7">
         <v>14130962</v>
       </c>
-      <c r="F15" s="47">
-        <f t="shared" ref="F15:F31" si="4">E15*12</f>
+      <c r="G15" s="47">
+        <f t="shared" ref="G15:G31" si="5">F15*12</f>
         <v>169571544</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>67</v>
       </c>
@@ -3546,15 +3699,19 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="30">
+        <f t="shared" si="4"/>
+        <v>15.217391304347828</v>
+      </c>
+      <c r="F16" s="7">
         <v>62773134</v>
       </c>
-      <c r="F16" s="47">
-        <f t="shared" si="4"/>
+      <c r="G16" s="47">
+        <f t="shared" si="5"/>
         <v>753277608</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>68</v>
       </c>
@@ -3568,15 +3725,19 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="30">
+        <f t="shared" si="4"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F17" s="7">
         <v>11535734</v>
       </c>
-      <c r="F17" s="47">
-        <f t="shared" si="4"/>
+      <c r="G17" s="47">
+        <f t="shared" si="5"/>
         <v>138428808</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>69</v>
       </c>
@@ -3590,15 +3751,19 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="30">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+      <c r="F18" s="7">
         <v>8399799</v>
       </c>
-      <c r="F18" s="47">
-        <f t="shared" si="4"/>
+      <c r="G18" s="47">
+        <f t="shared" si="5"/>
         <v>100797588</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>70</v>
       </c>
@@ -3610,15 +3775,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>532402</v>
       </c>
-      <c r="F19" s="47">
-        <f t="shared" si="4"/>
+      <c r="G19" s="47">
+        <f t="shared" si="5"/>
         <v>6388824</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>71</v>
       </c>
@@ -3632,15 +3801,19 @@
         <f t="shared" si="3"/>
         <v>71803</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="30">
+        <f t="shared" si="4"/>
+        <v>40.533125356879239</v>
+      </c>
+      <c r="F20" s="7">
         <v>46051591457</v>
       </c>
-      <c r="F20" s="47">
-        <f t="shared" si="4"/>
+      <c r="G20" s="47">
+        <f t="shared" si="5"/>
         <v>552619097484</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>72</v>
       </c>
@@ -3652,15 +3825,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
         <v>681891</v>
       </c>
-      <c r="F21" s="47">
-        <f t="shared" si="4"/>
+      <c r="G21" s="47">
+        <f t="shared" si="5"/>
         <v>8182692</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>73</v>
       </c>
@@ -3674,15 +3851,19 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="30">
+        <f t="shared" si="4"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="F22" s="7">
         <v>11897307</v>
       </c>
-      <c r="F22" s="47">
-        <f t="shared" si="4"/>
+      <c r="G22" s="47">
+        <f t="shared" si="5"/>
         <v>142767684</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>74</v>
       </c>
@@ -3694,15 +3875,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="30">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F23" s="7">
         <v>1200000</v>
       </c>
-      <c r="F23" s="47">
-        <f t="shared" si="4"/>
+      <c r="G23" s="47">
+        <f t="shared" si="5"/>
         <v>14400000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
         <v>75</v>
       </c>
@@ -3716,15 +3901,19 @@
         <f t="shared" si="3"/>
         <v>8759</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="30">
+        <f t="shared" si="4"/>
+        <v>27.720059367507705</v>
+      </c>
+      <c r="F24" s="7">
         <v>15247693078</v>
       </c>
-      <c r="F24" s="47">
-        <f t="shared" si="4"/>
+      <c r="G24" s="47">
+        <f t="shared" si="5"/>
         <v>182972316936</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>76</v>
       </c>
@@ -3736,19 +3925,25 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="30">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="7">
         <v>2400000</v>
       </c>
-      <c r="F25" s="47">
-        <f t="shared" si="4"/>
+      <c r="G25" s="47">
+        <f t="shared" si="5"/>
         <v>28800000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>0</v>
+      </c>
       <c r="C26" s="19">
         <v>5</v>
       </c>
@@ -3756,15 +3951,19 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
         <v>43190742</v>
       </c>
-      <c r="F26" s="47">
-        <f t="shared" si="4"/>
+      <c r="G26" s="47">
+        <f t="shared" si="5"/>
         <v>518288904</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>78</v>
       </c>
@@ -3778,15 +3977,19 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="30">
+        <f t="shared" si="4"/>
+        <v>87.5</v>
+      </c>
+      <c r="F27" s="7">
         <v>2463446</v>
       </c>
-      <c r="F27" s="47">
-        <f t="shared" si="4"/>
+      <c r="G27" s="47">
+        <f t="shared" si="5"/>
         <v>29561352</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>79</v>
       </c>
@@ -3798,35 +4001,48 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
         <v>745747</v>
       </c>
-      <c r="F28" s="47">
-        <f t="shared" si="4"/>
+      <c r="G28" s="47">
+        <f t="shared" si="5"/>
         <v>8948964</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
       <c r="D29" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="47">
-        <f t="shared" si="4"/>
+      <c r="E29" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="7"/>
+      <c r="G29" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="19">
+        <v>0</v>
+      </c>
       <c r="C30" s="19">
         <v>3</v>
       </c>
@@ -3834,31 +4050,42 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <v>1514849</v>
       </c>
-      <c r="F30" s="47">
-        <f t="shared" si="4"/>
+      <c r="G30" s="47">
+        <f t="shared" si="5"/>
         <v>18178188</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="19">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
       <c r="D31" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="47">
-        <f t="shared" si="4"/>
+      <c r="E31" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="7"/>
+      <c r="G31" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>60</v>
       </c>
@@ -3874,12 +4101,13 @@
         <f>SUM(D14:D31)</f>
         <v>314501</v>
       </c>
-      <c r="E32" s="38">
-        <f>SUM(E14:E31)</f>
-        <v>237659715267</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="38">
         <f>SUM(F14:F31)</f>
+        <v>237659715267</v>
+      </c>
+      <c r="G32" s="38">
+        <f>SUM(G14:G31)</f>
         <v>2851916583204</v>
       </c>
     </row>
@@ -3896,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,50 +4138,50 @@
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="69"/>
+      <c r="P2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67" t="s">
+      <c r="U2" s="69"/>
+      <c r="V2" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="67"/>
+      <c r="W2" s="69"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -5819,17 +6047,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5839,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5861,20 +6089,20 @@
       <c r="A4" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69" t="s">
         <v>558</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -6046,15 +6274,15 @@
       <c r="A14" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="71"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -6258,11 +6486,11 @@
       <c r="A27" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
@@ -6820,7 +7048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:G223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6893,14 +7121,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="69" t="s">
         <v>525</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>

--- a/notes/Indicators for the Dashboard.xlsx
+++ b/notes/Indicators for the Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dash\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752FBDC-BEF9-42A7-9A6C-572B49B82B5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441BEA3-5D8C-4351-AE7E-C0C98A022E04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="591">
   <si>
     <t>1. Human Resource Breakdown by Salary Scale and Seniority</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Smart Dashboard Information Needs</t>
   </si>
   <si>
-    <t>SCALE</t>
-  </si>
-  <si>
     <t>FEMALE</t>
   </si>
   <si>
@@ -1804,6 +1801,9 @@
   </si>
   <si>
     <t>Female Percentage</t>
+  </si>
+  <si>
+    <t>Salary Scale</t>
   </si>
 </sst>
 </file>
@@ -1999,14 +1999,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2068,7 +2067,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,25 +2079,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2107,11 +2098,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2145,18 +2142,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2458,131 +2443,131 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="53" t="s">
         <v>588</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>586</v>
+      <c r="B4" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>586</v>
+      <c r="B5" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>586</v>
+      <c r="B6" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>62</v>
+      <c r="B7" s="50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>62</v>
+      <c r="B8" s="50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>586</v>
+      <c r="B9" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>586</v>
+      <c r="B10" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>586</v>
+      <c r="B11" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>90</v>
+      <c r="B12" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>587</v>
+      <c r="B13" s="52" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>586</v>
+      <c r="B14" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>90</v>
+      <c r="B15" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>90</v>
+      <c r="B16" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>90</v>
+      <c r="B17" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>90</v>
+      <c r="B18" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2590,15 +2575,15 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>586</v>
+      <c r="B20" s="49" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2615,7 +2600,7 @@
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2628,419 +2613,419 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="74"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="75"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>196795</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>117706</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <f>B6+C6</f>
         <v>314501</v>
       </c>
-      <c r="E6" s="76"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="21">
+        <v>41.75</v>
+      </c>
+      <c r="C7" s="21">
+        <v>39.75</v>
+      </c>
+      <c r="D7" s="22">
+        <v>41.08</v>
+      </c>
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="22">
-        <v>41.75</v>
-      </c>
-      <c r="C7" s="22">
-        <v>39.75</v>
-      </c>
-      <c r="D7" s="23">
-        <v>41.08</v>
-      </c>
-      <c r="E7" s="77"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="21">
+        <v>27.58</v>
+      </c>
+      <c r="C8" s="21">
+        <v>26</v>
+      </c>
+      <c r="D8" s="22">
+        <v>27</v>
+      </c>
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="22">
-        <v>27.58</v>
-      </c>
-      <c r="C8" s="22">
-        <v>26</v>
-      </c>
-      <c r="D8" s="23">
-        <v>27</v>
-      </c>
-      <c r="E8" s="77"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="23">
+        <v>14.16</v>
+      </c>
+      <c r="C9" s="23">
+        <v>13.75</v>
+      </c>
+      <c r="D9" s="22">
+        <v>14.08</v>
+      </c>
+      <c r="E9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="24">
-        <v>14.16</v>
-      </c>
-      <c r="C9" s="24">
-        <v>13.75</v>
-      </c>
-      <c r="D9" s="23">
-        <v>14.08</v>
-      </c>
-      <c r="E9" s="77"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <f t="shared" ref="B10:D10" si="0">B9*12</f>
         <v>169.92000000000002</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>168.96</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="23">
+        <v>6.16</v>
+      </c>
+      <c r="C11" s="23">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>6.33</v>
+      </c>
+      <c r="E11" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="24">
-        <v>6.16</v>
-      </c>
-      <c r="C11" s="24">
-        <v>6.5</v>
-      </c>
-      <c r="D11" s="23">
-        <v>6.33</v>
-      </c>
-      <c r="E11" s="77"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>61</v>
+      <c r="D16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="28">
+        <v>48</v>
+      </c>
+      <c r="B17" s="27">
         <v>16362</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>18412</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>34774</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f>B17/D17*100</f>
         <v>47.052395467878299</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <f>D17/D$28</f>
         <v>0.110568805822557</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="28">
+        <v>49</v>
+      </c>
+      <c r="B18" s="27">
         <v>23218</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>35636</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>58854</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <f t="shared" ref="E18:E27" si="1">B18/D18*100</f>
         <v>39.450164814626028</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="34">
         <f t="shared" ref="F18:F27" si="2">D18/D$28</f>
         <v>0.18713454011275005</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="28">
+        <v>50</v>
+      </c>
+      <c r="B19" s="27">
         <v>23375</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>36050</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>59425</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <f t="shared" si="1"/>
         <v>39.33529659234329</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <f t="shared" si="2"/>
         <v>0.18895011462602662</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="28">
+        <v>51</v>
+      </c>
+      <c r="B20" s="27">
         <v>21705</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>33513</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>55218</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f t="shared" si="1"/>
         <v>39.307834401825495</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <f t="shared" si="2"/>
         <v>0.17557336860614114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="28">
+        <v>52</v>
+      </c>
+      <c r="B21" s="27">
         <v>16103</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>30199</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <v>46302</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f t="shared" si="1"/>
         <v>34.778195326335798</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <f t="shared" si="2"/>
         <v>0.14722369722194842</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="28">
+        <v>53</v>
+      </c>
+      <c r="B22" s="27">
         <v>10125</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>25646</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="29">
         <v>35771</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <f t="shared" si="1"/>
         <v>28.305051578093988</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <f t="shared" si="2"/>
         <v>0.11373890703050228</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="28">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="27">
         <v>2728</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>7099</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="29">
         <v>9827</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <f t="shared" si="1"/>
         <v>27.760252365930597</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <f t="shared" si="2"/>
         <v>3.1246323541101618E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="28">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="27">
         <v>768</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>1969</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>2737</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <f t="shared" si="1"/>
         <v>28.059919620021923</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <f t="shared" si="2"/>
         <v>8.7026750312399637E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="28">
+        <v>56</v>
+      </c>
+      <c r="B25" s="27">
         <v>1415</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>3330</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>4745</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <f t="shared" si="1"/>
         <v>29.820864067439413</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="34">
         <f t="shared" si="2"/>
         <v>1.5087392408927158E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="28">
+        <v>57</v>
+      </c>
+      <c r="B26" s="27">
         <v>1126</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>2526</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="29">
         <v>3652</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <f t="shared" si="1"/>
         <v>30.832420591456739</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="34">
         <f t="shared" si="2"/>
         <v>1.1612045748662167E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="28">
+        <v>58</v>
+      </c>
+      <c r="B27" s="27">
         <v>781</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>2415</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <v>3196</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <f t="shared" si="1"/>
         <v>24.436795994993744</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="34">
         <f t="shared" si="2"/>
         <v>1.016212985014356E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="33">
+        <v>59</v>
+      </c>
+      <c r="B28" s="31">
         <f t="shared" ref="B28:D28" si="3">SUM(B17:B27)</f>
         <v>117706</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="31">
         <f t="shared" si="3"/>
         <v>196795</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <f t="shared" si="3"/>
         <v>314501</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="3"/>
     </row>
   </sheetData>
@@ -3058,7 +3043,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="A3" sqref="A3:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3071,37 +3056,37 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>590</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>6</v>
@@ -3112,7 +3097,7 @@
       <c r="D4" s="3">
         <v>19</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f>B4/D4*100</f>
         <v>31.578947368421051</v>
       </c>
@@ -3123,7 +3108,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>109</v>
@@ -3134,7 +3119,7 @@
       <c r="D5" s="3">
         <v>378</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f t="shared" ref="E5:E15" si="0">B5/D5*100</f>
         <v>28.835978835978835</v>
       </c>
@@ -3145,7 +3130,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>257</v>
@@ -3156,7 +3141,7 @@
       <c r="D6" s="3">
         <v>1257</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f t="shared" si="0"/>
         <v>20.445505171042164</v>
       </c>
@@ -3167,7 +3152,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>261</v>
@@ -3178,7 +3163,7 @@
       <c r="D7" s="3">
         <v>1416</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>18.432203389830509</v>
       </c>
@@ -3189,7 +3174,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>981</v>
@@ -3200,7 +3185,7 @@
       <c r="D8" s="3">
         <v>3158</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>31.063964534515513</v>
       </c>
@@ -3211,7 +3196,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>1836</v>
@@ -3222,7 +3207,7 @@
       <c r="D9" s="3">
         <v>6083</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>30.182475752096003</v>
       </c>
@@ -3233,7 +3218,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3">
         <v>10551</v>
@@ -3244,7 +3229,7 @@
       <c r="D10" s="3">
         <v>33156</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>31.822294607310891</v>
       </c>
@@ -3255,7 +3240,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3">
         <v>15419</v>
@@ -3266,7 +3251,7 @@
       <c r="D11" s="3">
         <v>45001</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>34.263683029266019</v>
       </c>
@@ -3277,7 +3262,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3">
         <v>9532</v>
@@ -3288,7 +3273,7 @@
       <c r="D12" s="3">
         <v>26554</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f t="shared" si="0"/>
         <v>35.896663402877152</v>
       </c>
@@ -3299,7 +3284,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3">
         <v>66390</v>
@@ -3310,7 +3295,7 @@
       <c r="D13" s="3">
         <v>162228</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <f t="shared" si="0"/>
         <v>40.92388490272949</v>
       </c>
@@ -3321,7 +3306,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3">
         <v>8531</v>
@@ -3332,7 +3317,7 @@
       <c r="D14" s="3">
         <v>23321</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f t="shared" si="0"/>
         <v>36.580764118176752</v>
       </c>
@@ -3343,7 +3328,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3">
         <v>3833</v>
@@ -3354,7 +3339,7 @@
       <c r="D15" s="3">
         <v>11930</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <f t="shared" si="0"/>
         <v>32.129086336965635</v>
       </c>
@@ -3364,7 +3349,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="2">
         <f>SUM(B4:B15)</f>
         <v>117706</v>
@@ -3392,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3404,709 +3391,709 @@
     <col min="4" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>87</v>
+      <c r="D2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6">
         <f>SUM(B14:B19)</f>
         <v>86163</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>SUM(C14:C19)</f>
         <v>147746</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="39">
         <f>SUM(D14:D19)</f>
         <v>233909</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="36">
+      <c r="E3" s="39"/>
+      <c r="F3" s="34">
         <f>D3/D$8</f>
         <v>0.74374644277760638</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="43">
         <f>SUM(G14:G19)</f>
         <v>2115556041000</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <f>G3/G$8</f>
         <v>0.74180151462328814</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6">
         <f>SUM(B24:B26)</f>
         <v>2429</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <f>SUM(C24:C26)</f>
         <v>6336</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <f>SUM(D24:D26)</f>
         <v>8765</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="36">
+      <c r="E4" s="39"/>
+      <c r="F4" s="34">
         <f t="shared" ref="F4:F6" si="0">D4/D$8</f>
         <v>2.7869545724814867E-2</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="43">
         <f>SUM(G24:G26)</f>
         <v>183519405840</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <f t="shared" ref="H4:H7" si="1">G4/G$8</f>
         <v>6.4349499883977743E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6">
         <f>SUM(B20:B23)</f>
         <v>29107</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>SUM(C20:C23)</f>
         <v>42707</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="39">
         <f>SUM(D20:D23)</f>
         <v>71814</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="36">
+      <c r="E5" s="39"/>
+      <c r="F5" s="34">
         <f t="shared" si="0"/>
         <v>0.22834267617591042</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="43">
         <f>SUM(G20:G23)</f>
         <v>552784447860</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>0.19382910815679311</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="6">
         <f>SUM(B27:B31)</f>
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <f>SUM(C27:C31)</f>
         <v>6</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="39">
         <f>SUM(D27:D31)</f>
         <v>13</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="36">
+      <c r="E6" s="39"/>
+      <c r="F6" s="34">
         <f t="shared" si="0"/>
         <v>4.1335321668293581E-5</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="43">
         <f>SUM(G27:G31)</f>
         <v>56688504</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>1.9877335940980789E-5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="31">
+      <c r="G7" s="44"/>
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="41">
+      <c r="A8" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="37">
         <f>SUM(B3:B6)</f>
         <v>117706</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <f t="shared" ref="C8:G8" si="2">SUM(C3:C6)</f>
         <v>196795</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="39">
         <f t="shared" si="2"/>
         <v>314501</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <f t="shared" si="2"/>
         <v>2851916583204</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="44" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="A14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="18">
         <v>86137</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>147635</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>B14+C14</f>
         <v>233772</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f>B14/D14*100</f>
         <v>36.846585562000584</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>176198964719</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="42">
         <f>F14*12</f>
         <v>2114387576628</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="A15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>8</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" ref="D15:D31" si="3">B15+C15</f>
         <v>13</v>
       </c>
-      <c r="E15" s="30">
-        <f t="shared" ref="E15:E31" si="4">B15/D15*100</f>
+      <c r="E15" s="29">
+        <f t="shared" ref="E15:E30" si="4">B15/D15*100</f>
         <v>38.461538461538467</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>14130962</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="42">
         <f t="shared" ref="G15:G31" si="5">F15*12</f>
         <v>169571544</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18">
         <v>14</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>78</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <f t="shared" si="4"/>
         <v>15.217391304347828</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>62773134</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="42">
         <f t="shared" si="5"/>
         <v>753277608</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="19">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="A17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18">
         <v>13</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <f t="shared" si="4"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>11535734</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="42">
         <f t="shared" si="5"/>
         <v>138428808</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18">
         <v>5</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>11</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <f t="shared" si="4"/>
         <v>31.25</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>8399799</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="42">
         <f t="shared" si="5"/>
         <v>100797588</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="A19" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>532402</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="42">
         <f t="shared" si="5"/>
         <v>6388824</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="18">
         <v>29104</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>42699</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <f t="shared" si="3"/>
         <v>71803</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f t="shared" si="4"/>
         <v>40.533125356879239</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>46051591457</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="42">
         <f t="shared" si="5"/>
         <v>552619097484</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="A21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>681891</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="42">
         <f t="shared" si="5"/>
         <v>8182692</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="19">
-        <v>2</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="A22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="18">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
         <v>7</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <f t="shared" si="4"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>11897307</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="42">
         <f t="shared" si="5"/>
         <v>142767684</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="19">
-        <v>1</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
+      <c r="A23" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>1200000</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="42">
         <f t="shared" si="5"/>
         <v>14400000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="18">
         <v>2428</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>6331</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <f t="shared" si="3"/>
         <v>8759</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <f t="shared" si="4"/>
         <v>27.720059367507705</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>15247693078</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="42">
         <f t="shared" si="5"/>
         <v>182972316936</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="19">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="A25" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>2400000</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="42">
         <f t="shared" si="5"/>
         <v>28800000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="19">
+      <c r="A26" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="18">
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>5</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>43190742</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="42">
         <f t="shared" si="5"/>
         <v>518288904</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="19">
+      <c r="A27" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="18">
         <v>7</v>
       </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="19">
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>2463446</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="42">
         <f t="shared" si="5"/>
         <v>29561352</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19">
-        <v>2</v>
-      </c>
-      <c r="D28" s="19">
+      <c r="A28" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>745747</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="42">
         <f t="shared" si="5"/>
         <v>8948964</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="19">
+      <c r="A29" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="18">
         <v>0</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>0</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="47">
+      <c r="F29" s="6"/>
+      <c r="G29" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="A30" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="18">
         <v>0</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>1514849</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="42">
         <f t="shared" si="5"/>
         <v>18178188</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="A31" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="18">
         <v>0</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>0</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>0</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="47">
+      <c r="F31" s="6"/>
+      <c r="G31" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="38">
+      <c r="A32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="36">
         <f>SUM(B14:B31)</f>
         <v>117706</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="36">
         <f>SUM(C14:C31)</f>
         <v>196795</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <f>SUM(D14:D31)</f>
         <v>314501</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36">
         <f>SUM(F14:F31)</f>
         <v>237659715267</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="36">
         <f>SUM(G14:G31)</f>
         <v>2851916583204</v>
       </c>
@@ -4136,52 +4123,52 @@
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69" t="s">
+      <c r="S2" s="64"/>
+      <c r="T2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="69"/>
+      <c r="W2" s="64"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -4189,84 +4176,84 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Z3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4314,22 +4301,22 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="41">
+      <c r="X4" s="37">
         <f>B4+D4+F4+H4+J4+L4+N4+P4+R4+T4+V4</f>
         <v>101</v>
       </c>
-      <c r="Y4" s="41">
+      <c r="Y4" s="37">
         <f>C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4</f>
         <v>131</v>
       </c>
-      <c r="Z4" s="51">
+      <c r="Z4" s="45">
         <f>SUM(X4:Y4)</f>
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="3">
         <v>32</v>
@@ -4381,22 +4368,22 @@
       <c r="W5" s="3">
         <v>89</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="37">
         <f t="shared" ref="X5:X34" si="0">B5+D5+F5+H5+J5+L5+N5+P5+R5+T5+V5</f>
         <v>487</v>
       </c>
-      <c r="Y5" s="41">
+      <c r="Y5" s="37">
         <f t="shared" ref="Y5:Y34" si="1">C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5</f>
         <v>598</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="45">
         <f t="shared" ref="Z5:Z34" si="2">SUM(X5:Y5)</f>
         <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4432,22 +4419,22 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="41">
+      <c r="X6" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Z6" s="51">
+      <c r="Z6" s="45">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -4483,22 +4470,22 @@
       <c r="W7" s="3">
         <v>2</v>
       </c>
-      <c r="X7" s="41">
+      <c r="X7" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Y7" s="41">
+      <c r="Y7" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Z7" s="51">
+      <c r="Z7" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -4536,22 +4523,22 @@
         <v>1</v>
       </c>
       <c r="W8" s="3"/>
-      <c r="X8" s="41">
+      <c r="X8" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Y8" s="41">
+      <c r="Y8" s="37">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Z8" s="51">
+      <c r="Z8" s="45">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="3">
         <v>56</v>
@@ -4613,22 +4600,22 @@
       <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="37">
         <f t="shared" si="0"/>
         <v>1704</v>
       </c>
-      <c r="Y9" s="41">
+      <c r="Y9" s="37">
         <f t="shared" si="1"/>
         <v>2822</v>
       </c>
-      <c r="Z9" s="51">
+      <c r="Z9" s="45">
         <f t="shared" si="2"/>
         <v>4526</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -4678,22 +4665,22 @@
       <c r="W10" s="3">
         <v>1</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y10" s="41">
+      <c r="Y10" s="37">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="Z10" s="51">
+      <c r="Z10" s="45">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -4733,22 +4720,22 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="41">
+      <c r="X11" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Y11" s="41">
+      <c r="Y11" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Z11" s="51">
+      <c r="Z11" s="45">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -4778,22 +4765,22 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="41">
+      <c r="X12" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Y12" s="41">
+      <c r="Y12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="51">
+      <c r="Z12" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -4829,22 +4816,22 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="41">
+      <c r="X13" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y13" s="41">
+      <c r="Y13" s="37">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="Z13" s="51">
+      <c r="Z13" s="45">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -4886,22 +4873,22 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="41">
+      <c r="X14" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Z14" s="51">
+      <c r="Z14" s="45">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -4943,22 +4930,22 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="41">
+      <c r="X15" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y15" s="41">
+      <c r="Y15" s="37">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="Z15" s="51">
+      <c r="Z15" s="45">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -4990,22 +4977,22 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="41">
+      <c r="X16" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Y16" s="41">
+      <c r="Y16" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Z16" s="51">
+      <c r="Z16" s="45">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -5065,22 +5052,22 @@
       <c r="W17" s="3">
         <v>3</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="37">
         <f t="shared" si="0"/>
         <v>591</v>
       </c>
-      <c r="Y17" s="41">
+      <c r="Y17" s="37">
         <f t="shared" si="1"/>
         <v>381</v>
       </c>
-      <c r="Z17" s="51">
+      <c r="Z17" s="45">
         <f t="shared" si="2"/>
         <v>972</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -5122,22 +5109,22 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="41">
+      <c r="X18" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y18" s="41">
+      <c r="Y18" s="37">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Z18" s="51">
+      <c r="Z18" s="45">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -5171,22 +5158,22 @@
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="41">
+      <c r="X19" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Y19" s="41">
+      <c r="Y19" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Z19" s="51">
+      <c r="Z19" s="45">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -5222,22 +5209,22 @@
       <c r="W20" s="3">
         <v>30</v>
       </c>
-      <c r="X20" s="41">
+      <c r="X20" s="37">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="Y20" s="41">
+      <c r="Y20" s="37">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="Z20" s="51">
+      <c r="Z20" s="45">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -5267,22 +5254,22 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="41">
+      <c r="X21" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y21" s="41">
+      <c r="Y21" s="37">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="Z21" s="51">
+      <c r="Z21" s="45">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -5320,22 +5307,22 @@
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="41">
+      <c r="X22" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Y22" s="41">
+      <c r="Y22" s="37">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="Z22" s="51">
+      <c r="Z22" s="45">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -5377,22 +5364,22 @@
       <c r="W23" s="3">
         <v>4</v>
       </c>
-      <c r="X23" s="41">
+      <c r="X23" s="37">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="Y23" s="41">
+      <c r="Y23" s="37">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="Z23" s="51">
+      <c r="Z23" s="45">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -5436,22 +5423,22 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="41">
+      <c r="X24" s="37">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="Y24" s="41">
+      <c r="Y24" s="37">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="Z24" s="51">
+      <c r="Z24" s="45">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -5491,22 +5478,22 @@
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-      <c r="X25" s="41">
+      <c r="X25" s="37">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="Y25" s="41">
+      <c r="Y25" s="37">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="Z25" s="51">
+      <c r="Z25" s="45">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -5550,22 +5537,22 @@
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="41">
+      <c r="X26" s="37">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="Y26" s="41">
+      <c r="Y26" s="37">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Z26" s="51">
+      <c r="Z26" s="45">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -5605,22 +5592,22 @@
       <c r="W27" s="3">
         <v>187</v>
       </c>
-      <c r="X27" s="41">
+      <c r="X27" s="37">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="Y27" s="41">
+      <c r="Y27" s="37">
         <f t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="Z27" s="51">
+      <c r="Z27" s="45">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -5672,22 +5659,22 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-      <c r="X28" s="41">
+      <c r="X28" s="37">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="Y28" s="41">
+      <c r="Y28" s="37">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="Z28" s="51">
+      <c r="Z28" s="45">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -5727,22 +5714,22 @@
       <c r="W29" s="3">
         <v>344</v>
       </c>
-      <c r="X29" s="41">
+      <c r="X29" s="37">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="Y29" s="41">
+      <c r="Y29" s="37">
         <f t="shared" si="1"/>
         <v>381</v>
       </c>
-      <c r="Z29" s="51">
+      <c r="Z29" s="45">
         <f t="shared" si="2"/>
         <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -5776,22 +5763,22 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-      <c r="X30" s="41">
+      <c r="X30" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Y30" s="41">
+      <c r="Y30" s="37">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="Z30" s="51">
+      <c r="Z30" s="45">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -5835,22 +5822,22 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="41">
+      <c r="X31" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Y31" s="41">
+      <c r="Y31" s="37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="Z31" s="51">
+      <c r="Z31" s="45">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -5888,22 +5875,22 @@
       <c r="W32" s="3">
         <v>1</v>
       </c>
-      <c r="X32" s="41">
+      <c r="X32" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Y32" s="41">
+      <c r="Y32" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Z32" s="51">
+      <c r="Z32" s="45">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -5949,22 +5936,22 @@
       <c r="W33" s="3">
         <v>1</v>
       </c>
-      <c r="X33" s="41">
+      <c r="X33" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Y33" s="41">
+      <c r="Y33" s="37">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="Z33" s="51">
+      <c r="Z33" s="45">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
         <v>131</v>
@@ -6032,15 +6019,15 @@
       <c r="W34" s="2">
         <v>665</v>
       </c>
-      <c r="X34" s="41">
+      <c r="X34" s="37">
         <f t="shared" si="0"/>
         <v>3763</v>
       </c>
-      <c r="Y34" s="41">
+      <c r="Y34" s="37">
         <f t="shared" si="1"/>
         <v>5347</v>
       </c>
-      <c r="Z34" s="51">
+      <c r="Z34" s="45">
         <f t="shared" si="2"/>
         <v>9110</v>
       </c>
@@ -6081,190 +6068,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>585</v>
+      <c r="A2" s="48" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69" t="s">
-        <v>558</v>
-      </c>
-      <c r="I4" s="71"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>17398</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="40">
         <v>25241.745203999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>5671</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>21410</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f>SUM(D6:E6)</f>
         <v>27081</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="40">
         <v>59239.596987000004</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="46">
         <f t="shared" ref="H6:I9" si="0">(F6-B6)/B6</f>
         <v>0.55655822508334296</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="46">
         <f t="shared" si="0"/>
         <v>1.3468899043324647</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>564</v>
+      <c r="A7" s="24" t="s">
+        <v>563</v>
       </c>
       <c r="B7" s="3">
         <v>16702</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="40">
         <v>74063.751516000004</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>4504</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>13622</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>SUM(D7:E7)</f>
         <v>18126</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="40">
         <v>86479.980347759963</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="46">
         <f t="shared" si="0"/>
         <v>8.5259250389174951E-2</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="46">
         <f t="shared" si="0"/>
         <v>0.1676424509643922</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="6">
         <v>29845</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="40">
         <v>127873.82125199999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>6044</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>25662</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f>SUM(D8:E8)</f>
         <v>31706</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <v>142975.7763602401</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="46">
         <f t="shared" si="0"/>
         <v>6.2355503434411125E-2</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="46">
         <f t="shared" si="0"/>
         <v>0.11810044433159458</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="51">
+      <c r="B9" s="45">
         <f t="shared" ref="B9:G9" si="1">SUM(B6:B8)</f>
         <v>63945</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="45">
         <f t="shared" si="1"/>
         <v>227179.31797199999</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="45">
         <f t="shared" si="1"/>
         <v>16219</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="45">
         <f t="shared" si="1"/>
         <v>60694</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="45">
         <f t="shared" si="1"/>
         <v>76913</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="45">
         <f t="shared" si="1"/>
         <v>288695.35369500006</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="46">
         <f t="shared" si="0"/>
         <v>0.20279928063179295</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="46">
         <f t="shared" si="0"/>
         <v>0.27078184877103101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>575</v>
+      <c r="A12" s="48" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6272,761 +6259,761 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>566</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="73"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>568</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="7">
+        <v>568</v>
+      </c>
+      <c r="B16" s="6">
         <v>1048</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>11524</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" ref="D16:D22" si="2">B16+C16</f>
         <v>12572</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="47">
         <f>D16/D$23</f>
         <v>0.16345741292109267</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>38197.959429600007</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7">
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
         <v>2406</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>11866</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f t="shared" si="2"/>
         <v>14272</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="47">
         <f t="shared" ref="E17:E22" si="3">D17/D$23</f>
         <v>0.18556030840040044</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>41891.983863959991</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B18" s="7">
+        <v>569</v>
+      </c>
+      <c r="B18" s="6">
         <v>4914</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>18634</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f t="shared" si="2"/>
         <v>23548</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="47">
         <f t="shared" si="3"/>
         <v>0.30616410749808226</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>72800.459974319965</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B19" s="7">
+        <v>570</v>
+      </c>
+      <c r="B19" s="6">
         <v>664</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>5671</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="2"/>
         <v>6335</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="47">
         <f t="shared" si="3"/>
         <v>8.2365789918479315E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>104931.72812820008</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B20" s="7">
+        <v>571</v>
+      </c>
+      <c r="B20" s="6">
         <v>703</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>5597</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <f t="shared" si="2"/>
         <v>6300</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="47">
         <f t="shared" si="3"/>
         <v>8.1910730305670046E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>13916.167629599975</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B21" s="7">
+        <v>572</v>
+      </c>
+      <c r="B21" s="6">
         <v>540</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>3187</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <f t="shared" si="2"/>
         <v>3727</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="47">
         <f t="shared" si="3"/>
         <v>4.8457347912576547E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>11385.23152379997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B22" s="7">
+        <v>573</v>
+      </c>
+      <c r="B22" s="6">
         <v>5944</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>4215</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <f t="shared" si="2"/>
         <v>10159</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="47">
         <f t="shared" si="3"/>
         <v>0.13208430304369873</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>5571.8231455199902</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <f>SUM(B22:B22)</f>
         <v>5944</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>SUM(C22:C22)</f>
         <v>4215</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f>SUM(D16:D22)</f>
         <v>76913</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>288695.353695</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
-        <v>584</v>
+      <c r="A25" s="48" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="B27" s="70" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="7">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1508</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" s="7">
+        <v>290</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3963</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7">
+        <v>107</v>
+      </c>
+      <c r="D34" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" s="7">
+        <v>14</v>
+      </c>
+      <c r="C35" s="7">
+        <v>94</v>
+      </c>
+      <c r="D35" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3233</v>
+      </c>
+      <c r="C37" s="7">
+        <v>10990</v>
+      </c>
+      <c r="D37" s="7">
+        <v>14223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="B39" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="B32" s="8">
-        <v>191</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1508</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="C39" s="7">
+        <v>1255</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="7">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7">
+        <v>154</v>
+      </c>
+      <c r="D40" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7">
+        <v>48</v>
+      </c>
+      <c r="D41" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3755</v>
+      </c>
+      <c r="C42" s="7">
+        <v>13061</v>
+      </c>
+      <c r="D42" s="7">
+        <v>16816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>32</v>
+      </c>
+      <c r="D43" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7">
+        <v>423</v>
+      </c>
+      <c r="D44" s="7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" s="7">
+        <v>25</v>
+      </c>
+      <c r="C45" s="7">
+        <v>172</v>
+      </c>
+      <c r="D45" s="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7">
+        <v>70</v>
+      </c>
+      <c r="D46" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1581</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2361</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" s="7">
+        <v>24</v>
+      </c>
+      <c r="C48" s="7">
+        <v>549</v>
+      </c>
+      <c r="D48" s="7">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49" s="7">
+        <v>146</v>
+      </c>
+      <c r="C49" s="7">
+        <v>891</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="B50" s="7">
+        <v>907</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5343</v>
+      </c>
+      <c r="D50" s="7">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="B52" s="7">
+        <v>88</v>
+      </c>
+      <c r="C52" s="7">
+        <v>828</v>
+      </c>
+      <c r="D52" s="7">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="B53" s="7">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7">
+        <v>192</v>
+      </c>
+      <c r="D53" s="7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" s="7">
+        <v>116</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1292</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="B55" s="7">
+        <v>89</v>
+      </c>
+      <c r="C55" s="7">
+        <v>345</v>
+      </c>
+      <c r="D55" s="7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="B56" s="7">
+        <v>21</v>
+      </c>
+      <c r="C56" s="7">
+        <v>166</v>
+      </c>
+      <c r="D56" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="B57" s="7">
+        <v>541</v>
+      </c>
+      <c r="C57" s="7">
+        <v>396</v>
+      </c>
+      <c r="D57" s="7">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="B58" s="7">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7">
+        <v>360</v>
+      </c>
+      <c r="D58" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="7">
+        <v>124</v>
+      </c>
+      <c r="C59" s="7">
+        <v>756</v>
+      </c>
+      <c r="D59" s="7">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="B60" s="7">
         <v>290</v>
       </c>
-      <c r="C33" s="8">
-        <v>3963</v>
-      </c>
-      <c r="D33" s="8">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="B34" s="8">
-        <v>5</v>
-      </c>
-      <c r="C34" s="8">
-        <v>107</v>
-      </c>
-      <c r="D34" s="8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="B35" s="8">
-        <v>14</v>
-      </c>
-      <c r="C35" s="8">
-        <v>94</v>
-      </c>
-      <c r="D35" s="8">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="B36" s="8">
-        <v>4</v>
-      </c>
-      <c r="C36" s="8">
-        <v>33</v>
-      </c>
-      <c r="D36" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="B37" s="8">
-        <v>3233</v>
-      </c>
-      <c r="C37" s="8">
-        <v>10990</v>
-      </c>
-      <c r="D37" s="8">
-        <v>14223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="B39" s="8">
-        <v>41</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1255</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="B40" s="8">
-        <v>17</v>
-      </c>
-      <c r="C40" s="8">
-        <v>154</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C60" s="7">
+        <v>1688</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B61" s="7">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7">
+        <v>148</v>
+      </c>
+      <c r="D61" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="B62" s="7">
+        <v>22</v>
+      </c>
+      <c r="C62" s="7">
+        <v>354</v>
+      </c>
+      <c r="D62" s="7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="B63" s="7">
+        <v>32</v>
+      </c>
+      <c r="C63" s="7">
+        <v>139</v>
+      </c>
+      <c r="D63" s="7">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="B41" s="8">
-        <v>8</v>
-      </c>
-      <c r="C41" s="8">
-        <v>48</v>
-      </c>
-      <c r="D41" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="B42" s="8">
-        <v>3755</v>
-      </c>
-      <c r="C42" s="8">
-        <v>13061</v>
-      </c>
-      <c r="D42" s="8">
-        <v>16816</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="B43" s="8">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4566</v>
+      </c>
+      <c r="C64" s="7">
+        <v>12893</v>
+      </c>
+      <c r="D64" s="7">
+        <v>17459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="B65" s="7">
         <v>3</v>
       </c>
-      <c r="C43" s="8">
-        <v>32</v>
-      </c>
-      <c r="D43" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="B44" s="8">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8">
-        <v>423</v>
-      </c>
-      <c r="D44" s="8">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="B45" s="8">
-        <v>25</v>
-      </c>
-      <c r="C45" s="8">
-        <v>172</v>
-      </c>
-      <c r="D45" s="8">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" s="8">
-        <v>5</v>
-      </c>
-      <c r="C46" s="8">
-        <v>70</v>
-      </c>
-      <c r="D46" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="B47" s="8">
-        <v>1581</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2361</v>
-      </c>
-      <c r="D47" s="8">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="B48" s="8">
-        <v>24</v>
-      </c>
-      <c r="C48" s="8">
-        <v>549</v>
-      </c>
-      <c r="D48" s="8">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="B49" s="8">
-        <v>146</v>
-      </c>
-      <c r="C49" s="8">
-        <v>891</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="B50" s="8">
-        <v>907</v>
-      </c>
-      <c r="C50" s="8">
-        <v>5343</v>
-      </c>
-      <c r="D50" s="8">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="B52" s="8">
-        <v>88</v>
-      </c>
-      <c r="C52" s="8">
-        <v>828</v>
-      </c>
-      <c r="D52" s="8">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
-        <v>544</v>
-      </c>
-      <c r="B53" s="8">
-        <v>22</v>
-      </c>
-      <c r="C53" s="8">
-        <v>192</v>
-      </c>
-      <c r="D53" s="8">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="B54" s="8">
-        <v>116</v>
-      </c>
-      <c r="C54" s="8">
-        <v>1292</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="B55" s="8">
-        <v>89</v>
-      </c>
-      <c r="C55" s="8">
-        <v>345</v>
-      </c>
-      <c r="D55" s="8">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="B56" s="8">
-        <v>21</v>
-      </c>
-      <c r="C56" s="8">
-        <v>166</v>
-      </c>
-      <c r="D56" s="8">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="B57" s="8">
-        <v>541</v>
-      </c>
-      <c r="C57" s="8">
-        <v>396</v>
-      </c>
-      <c r="D57" s="8">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="B58" s="8">
-        <v>3</v>
-      </c>
-      <c r="C58" s="8">
-        <v>360</v>
-      </c>
-      <c r="D58" s="8">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="B59" s="8">
-        <v>124</v>
-      </c>
-      <c r="C59" s="8">
-        <v>756</v>
-      </c>
-      <c r="D59" s="8">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="B60" s="8">
-        <v>290</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1688</v>
-      </c>
-      <c r="D60" s="8">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="8">
-        <v>8</v>
-      </c>
-      <c r="C61" s="8">
-        <v>148</v>
-      </c>
-      <c r="D61" s="8">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="B62" s="8">
-        <v>22</v>
-      </c>
-      <c r="C62" s="8">
-        <v>354</v>
-      </c>
-      <c r="D62" s="8">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="B63" s="8">
-        <v>32</v>
-      </c>
-      <c r="C63" s="8">
-        <v>139</v>
-      </c>
-      <c r="D63" s="8">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="B64" s="8">
-        <v>4566</v>
-      </c>
-      <c r="C64" s="8">
-        <v>12893</v>
-      </c>
-      <c r="D64" s="8">
-        <v>17459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="B65" s="8">
-        <v>3</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>78</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40">
+      <c r="A66" s="3"/>
+      <c r="B66" s="37">
         <f>SUM(B29:B65)</f>
         <v>16219</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="37">
         <f>SUM(C29:C65)</f>
         <v>60694</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="37">
         <f>SUM(D29:D65)</f>
         <v>76913</v>
       </c>
@@ -7049,7 +7036,7 @@
   <dimension ref="A2:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7063,57 +7050,57 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" s="9">
+        <v>519</v>
+      </c>
+      <c r="D3" s="8">
         <f>D223</f>
         <v>3405</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <f>D3/D$6</f>
         <v>0.75700311249444197</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D4" s="9">
+        <v>520</v>
+      </c>
+      <c r="D4" s="8">
         <f>E223</f>
         <v>831</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <f t="shared" ref="E4:E5" si="0">D4/D$6</f>
         <v>0.18474877723432637</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D5" s="9">
+        <v>521</v>
+      </c>
+      <c r="D5" s="8">
         <f>F223</f>
         <v>262</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <f t="shared" si="0"/>
         <v>5.8248110271231661E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
-      <c r="D6" s="51">
+      <c r="D6" s="45">
         <f>SUM(D3:D5)</f>
         <v>4498</v>
       </c>
@@ -7121,43 +7108,43 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="69" t="s">
-        <v>525</v>
-      </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="B9" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>60</v>
+      <c r="G10" s="35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="3">
         <v>7</v>
@@ -7173,10 +7160,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
@@ -7192,10 +7179,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -7211,10 +7198,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D14" s="3">
         <v>17</v>
@@ -7230,10 +7217,10 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
@@ -7249,10 +7236,10 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -7268,10 +7255,10 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -7289,10 +7276,10 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -7308,10 +7295,10 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D19" s="3">
         <v>15</v>
@@ -7329,10 +7316,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D20" s="3">
         <v>9</v>
@@ -7348,10 +7335,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
@@ -7367,10 +7354,10 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D22" s="3">
         <v>39</v>
@@ -7388,10 +7375,10 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D23" s="3">
         <v>11</v>
@@ -7409,10 +7396,10 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
@@ -7426,10 +7413,10 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="3">
         <v>19</v>
@@ -7447,10 +7434,10 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D26" s="3">
         <v>8</v>
@@ -7468,10 +7455,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D27" s="3">
         <v>12</v>
@@ -7489,10 +7476,10 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D28" s="3">
         <v>13</v>
@@ -7510,10 +7497,10 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -7529,10 +7516,10 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
@@ -7546,10 +7533,10 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -7565,10 +7552,10 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -7582,10 +7569,10 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -7597,10 +7584,10 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -7612,10 +7599,10 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7627,10 +7614,10 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D36" s="3">
         <v>52</v>
@@ -7648,10 +7635,10 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -7663,10 +7650,10 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -7678,10 +7665,10 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -7693,10 +7680,10 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -7708,10 +7695,10 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D41" s="3">
         <v>294</v>
@@ -7729,10 +7716,10 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="D42" s="3">
         <v>123</v>
@@ -7750,10 +7737,10 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7767,10 +7754,10 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D44" s="3">
         <v>2</v>
@@ -7784,10 +7771,10 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D45" s="3">
         <v>4</v>
@@ -7801,10 +7788,10 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
@@ -7818,10 +7805,10 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D47" s="3">
         <v>43</v>
@@ -7839,10 +7826,10 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D48" s="3">
         <v>7</v>
@@ -7858,10 +7845,10 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D49" s="3">
         <v>8</v>
@@ -7879,10 +7866,10 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D50" s="3">
         <v>7</v>
@@ -7896,10 +7883,10 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D51" s="3">
         <v>9</v>
@@ -7915,10 +7902,10 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D52" s="3">
         <v>5</v>
@@ -7936,10 +7923,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D53" s="3">
         <v>18</v>
@@ -7957,10 +7944,10 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
@@ -7976,10 +7963,10 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -7995,10 +7982,10 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D56" s="3">
         <v>12</v>
@@ -8014,10 +8001,10 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D57" s="3">
         <v>17</v>
@@ -8035,10 +8022,10 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D58" s="3">
         <v>11</v>
@@ -8052,10 +8039,10 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D59" s="3">
         <v>3</v>
@@ -8071,10 +8058,10 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
@@ -8088,10 +8075,10 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -8109,10 +8096,10 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -8128,10 +8115,10 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D63" s="3">
         <v>3</v>
@@ -8149,10 +8136,10 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D64" s="3">
         <v>11</v>
@@ -8168,10 +8155,10 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D65" s="3">
         <v>31</v>
@@ -8187,10 +8174,10 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="D66" s="3">
         <v>56</v>
@@ -8208,10 +8195,10 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="D67" s="3">
         <v>34</v>
@@ -8229,10 +8216,10 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="D68" s="3">
         <v>24</v>
@@ -8248,10 +8235,10 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D69" s="3">
         <v>31</v>
@@ -8269,10 +8256,10 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D70" s="3">
         <v>25</v>
@@ -8290,10 +8277,10 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D71" s="3">
         <v>31</v>
@@ -8309,10 +8296,10 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D72" s="3">
         <v>28</v>
@@ -8330,10 +8317,10 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D73" s="3">
         <v>31</v>
@@ -8349,10 +8336,10 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D74" s="3">
         <v>41</v>
@@ -8368,10 +8355,10 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D75" s="3">
         <v>31</v>
@@ -8389,10 +8376,10 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D76" s="3">
         <v>42</v>
@@ -8408,10 +8395,10 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D77" s="3">
         <v>21</v>
@@ -8429,10 +8416,10 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -8448,10 +8435,10 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D79" s="3">
         <v>37</v>
@@ -8467,10 +8454,10 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D80" s="3">
         <v>28</v>
@@ -8486,10 +8473,10 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D81" s="3">
         <v>30</v>
@@ -8507,10 +8494,10 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D82" s="3">
         <v>16</v>
@@ -8528,10 +8515,10 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D83" s="3">
         <v>38</v>
@@ -8549,10 +8536,10 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D84" s="3">
         <v>13</v>
@@ -8568,10 +8555,10 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D85" s="3">
         <v>20</v>
@@ -8589,10 +8576,10 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D86" s="3">
         <v>23</v>
@@ -8610,10 +8597,10 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D87" s="3">
         <v>15</v>
@@ -8629,10 +8616,10 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D88" s="3">
         <v>39</v>
@@ -8650,10 +8637,10 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D89" s="3">
         <v>6</v>
@@ -8671,10 +8658,10 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D90" s="3">
         <v>21</v>
@@ -8692,10 +8679,10 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="3">
         <v>11</v>
@@ -8711,10 +8698,10 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="3">
         <v>46</v>
@@ -8732,10 +8719,10 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D93" s="3">
         <v>38</v>
@@ -8751,10 +8738,10 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D94" s="3">
         <v>16</v>
@@ -8770,10 +8757,10 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D95" s="3">
         <v>17</v>
@@ -8791,10 +8778,10 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D96" s="3">
         <v>16</v>
@@ -8812,10 +8799,10 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D97" s="3">
         <v>50</v>
@@ -8833,10 +8820,10 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D98" s="3">
         <v>35</v>
@@ -8854,10 +8841,10 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D99" s="3">
         <v>3</v>
@@ -8873,10 +8860,10 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D100" s="3">
         <v>22</v>
@@ -8892,10 +8879,10 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D101" s="3">
         <v>23</v>
@@ -8911,10 +8898,10 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D102" s="3">
         <v>19</v>
@@ -8930,10 +8917,10 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D103" s="3">
         <v>19</v>
@@ -8951,10 +8938,10 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D104" s="3">
         <v>5</v>
@@ -8968,10 +8955,10 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D105" s="3">
         <v>11</v>
@@ -8989,10 +8976,10 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D106" s="3">
         <v>21</v>
@@ -9006,10 +8993,10 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D107" s="3">
         <v>57</v>
@@ -9027,10 +9014,10 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
@@ -9046,10 +9033,10 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D109" s="3">
         <v>22</v>
@@ -9067,10 +9054,10 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D110" s="3">
         <v>28</v>
@@ -9088,10 +9075,10 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D111" s="3">
         <v>35</v>
@@ -9109,10 +9096,10 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D112" s="3">
         <v>5</v>
@@ -9130,10 +9117,10 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D113" s="3">
         <v>61</v>
@@ -9151,10 +9138,10 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D114" s="3">
         <v>50</v>
@@ -9172,10 +9159,10 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D115" s="3">
         <v>81</v>
@@ -9193,10 +9180,10 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D116" s="3">
         <v>44</v>
@@ -9214,10 +9201,10 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D117" s="3">
         <v>9</v>
@@ -9233,10 +9220,10 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="D118" s="3">
         <v>37</v>
@@ -9254,10 +9241,10 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="D119" s="3">
         <v>14</v>
@@ -9275,10 +9262,10 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D120" s="3">
         <v>4</v>
@@ -9294,10 +9281,10 @@
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D121" s="3">
         <v>16</v>
@@ -9315,10 +9302,10 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D122" s="3">
         <v>14</v>
@@ -9334,10 +9321,10 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D123" s="3">
         <v>15</v>
@@ -9355,10 +9342,10 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D124" s="3">
         <v>6</v>
@@ -9374,10 +9361,10 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D125" s="3">
         <v>22</v>
@@ -9393,10 +9380,10 @@
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D126" s="3">
         <v>30</v>
@@ -9412,10 +9399,10 @@
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D127" s="3">
         <v>5</v>
@@ -9433,10 +9420,10 @@
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D128" s="3">
         <v>4</v>
@@ -9452,10 +9439,10 @@
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
@@ -9469,10 +9456,10 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D130" s="3">
         <v>19</v>
@@ -9488,10 +9475,10 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D131" s="3">
         <v>19</v>
@@ -9507,10 +9494,10 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D132" s="3">
         <v>57</v>
@@ -9526,10 +9513,10 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D133" s="3">
         <v>6</v>
@@ -9545,10 +9532,10 @@
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D134" s="3">
         <v>16</v>
@@ -9564,10 +9551,10 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D135" s="3">
         <v>11</v>
@@ -9585,10 +9572,10 @@
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D136" s="3">
         <v>2</v>
@@ -9604,10 +9591,10 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D137" s="3">
         <v>18</v>
@@ -9623,10 +9610,10 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D138" s="3">
         <v>14</v>
@@ -9642,10 +9629,10 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D139" s="3">
         <v>5</v>
@@ -9661,10 +9648,10 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D140" s="3">
         <v>2</v>
@@ -9682,10 +9669,10 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D141" s="3">
         <v>3</v>
@@ -9699,10 +9686,10 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D142" s="3">
         <v>16</v>
@@ -9720,10 +9707,10 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D143" s="3">
         <v>13</v>
@@ -9739,10 +9726,10 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="D144" s="3">
         <v>16</v>
@@ -9760,10 +9747,10 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D145" s="3">
         <v>1</v>
@@ -9777,10 +9764,10 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="D146" s="3">
         <v>6</v>
@@ -9796,10 +9783,10 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D147" s="3">
         <v>18</v>
@@ -9815,10 +9802,10 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D148" s="3">
         <v>21</v>
@@ -9834,10 +9821,10 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="D149" s="3">
         <v>28</v>
@@ -9853,10 +9840,10 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D150" s="3">
         <v>1</v>
@@ -9870,10 +9857,10 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D151" s="3">
         <v>6</v>
@@ -9889,10 +9876,10 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D152" s="3">
         <v>9</v>
@@ -9908,10 +9895,10 @@
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="D153" s="3">
         <v>9</v>
@@ -9929,10 +9916,10 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D154" s="3">
         <v>2</v>
@@ -9946,10 +9933,10 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="D155" s="3">
         <v>27</v>
@@ -9965,10 +9952,10 @@
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D156" s="3">
         <v>7</v>
@@ -9984,10 +9971,10 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D157" s="3">
         <v>9</v>
@@ -10003,10 +9990,10 @@
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="D158" s="3">
         <v>22</v>
@@ -10024,10 +10011,10 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="D159" s="3">
         <v>14</v>
@@ -10045,10 +10032,10 @@
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="D160" s="3">
         <v>20</v>
@@ -10066,10 +10053,10 @@
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D161" s="3">
         <v>6</v>
@@ -10087,10 +10074,10 @@
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="D162" s="3">
         <v>12</v>
@@ -10108,10 +10095,10 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="D163" s="3">
         <v>6</v>
@@ -10127,10 +10114,10 @@
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="D164" s="3">
         <v>16</v>
@@ -10148,10 +10135,10 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D165" s="3">
         <v>12</v>
@@ -10167,10 +10154,10 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D166" s="3">
         <v>23</v>
@@ -10186,10 +10173,10 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D167" s="3">
         <v>13</v>
@@ -10205,10 +10192,10 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D168" s="3">
         <v>15</v>
@@ -10224,10 +10211,10 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="D169" s="3">
         <v>15</v>
@@ -10245,10 +10232,10 @@
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D170" s="3">
         <v>14</v>
@@ -10264,10 +10251,10 @@
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="D171" s="3">
         <v>10</v>
@@ -10283,10 +10270,10 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D172" s="3">
         <v>10</v>
@@ -10300,10 +10287,10 @@
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="D173" s="3">
         <v>5</v>
@@ -10319,10 +10306,10 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="D174" s="3">
         <v>13</v>
@@ -10338,10 +10325,10 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D175" s="3">
         <v>12</v>
@@ -10359,10 +10346,10 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D176" s="3">
         <v>8</v>
@@ -10376,10 +10363,10 @@
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D177" s="3">
         <v>6</v>
@@ -10395,10 +10382,10 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="D178" s="3">
         <v>11</v>
@@ -10412,10 +10399,10 @@
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="D179" s="3">
         <v>16</v>
@@ -10431,10 +10418,10 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D180" s="3">
         <v>1</v>
@@ -10450,10 +10437,10 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="D181" s="3">
         <v>3</v>
@@ -10469,10 +10456,10 @@
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="D182" s="3">
         <v>1</v>
@@ -10488,10 +10475,10 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3">
@@ -10505,10 +10492,10 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="D184" s="3">
         <v>9</v>
@@ -10524,10 +10511,10 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D185" s="3">
         <v>8</v>
@@ -10545,10 +10532,10 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="D186" s="3">
         <v>8</v>
@@ -10566,10 +10553,10 @@
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="D187" s="3">
         <v>18</v>
@@ -10583,10 +10570,10 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="D188" s="3">
         <v>18</v>
@@ -10602,10 +10589,10 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D189" s="3">
         <v>12</v>
@@ -10623,10 +10610,10 @@
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="D190" s="3">
         <v>11</v>
@@ -10644,10 +10631,10 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="D191" s="3">
         <v>10</v>
@@ -10661,10 +10648,10 @@
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="D192" s="3">
         <v>9</v>
@@ -10682,10 +10669,10 @@
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D193" s="3">
         <v>16</v>
@@ -10703,10 +10690,10 @@
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D194" s="3">
         <v>2</v>
@@ -10720,10 +10707,10 @@
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="D195" s="3">
         <v>10</v>
@@ -10739,10 +10726,10 @@
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D196" s="3">
         <v>17</v>
@@ -10758,10 +10745,10 @@
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="D197" s="3">
         <v>14</v>
@@ -10777,10 +10764,10 @@
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="D198" s="3">
         <v>5</v>
@@ -10798,10 +10785,10 @@
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="D199" s="3">
         <v>7</v>
@@ -10817,10 +10804,10 @@
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="D200" s="3">
         <v>2</v>
@@ -10834,10 +10821,10 @@
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="D201" s="3">
         <v>6</v>
@@ -10853,10 +10840,10 @@
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="D202" s="3">
         <v>4</v>
@@ -10870,10 +10857,10 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="D203" s="3">
         <v>1</v>
@@ -10889,10 +10876,10 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="D204" s="3">
         <v>8</v>
@@ -10910,10 +10897,10 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D205" s="3">
         <v>5</v>
@@ -10931,10 +10918,10 @@
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D206" s="3">
         <v>9</v>
@@ -10948,10 +10935,10 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D207" s="3">
         <v>2</v>
@@ -10965,10 +10952,10 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D208" s="3">
         <v>4</v>
@@ -10982,10 +10969,10 @@
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D209" s="3">
         <v>2</v>
@@ -11003,10 +10990,10 @@
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D210" s="3">
         <v>3</v>
@@ -11022,10 +11009,10 @@
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D211" s="3">
         <v>1</v>
@@ -11039,10 +11026,10 @@
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="D212" s="3">
         <v>2</v>
@@ -11056,10 +11043,10 @@
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="D213" s="3">
         <v>13</v>
@@ -11077,10 +11064,10 @@
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="D214" s="3">
         <v>4</v>
@@ -11096,10 +11083,10 @@
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D215" s="3">
         <v>6</v>
@@ -11113,10 +11100,10 @@
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D216" s="3">
         <v>5</v>
@@ -11132,10 +11119,10 @@
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D217" s="3">
         <v>7</v>
@@ -11153,10 +11140,10 @@
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="D218" s="3">
         <v>9</v>
@@ -11174,10 +11161,10 @@
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="D219" s="3">
         <v>9</v>
@@ -11191,10 +11178,10 @@
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="D220" s="3">
         <v>2</v>
@@ -11210,10 +11197,10 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="D221" s="3">
         <v>3</v>
@@ -11227,10 +11214,10 @@
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -11245,19 +11232,19 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="41">
+      <c r="D223" s="37">
         <f>SUM(D11:D222)</f>
         <v>3405</v>
       </c>
-      <c r="E223" s="41">
+      <c r="E223" s="37">
         <f t="shared" ref="E223:G223" si="1">SUM(E11:E222)</f>
         <v>831</v>
       </c>
-      <c r="F223" s="41">
+      <c r="F223" s="37">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="G223" s="41">
+      <c r="G223" s="37">
         <f t="shared" si="1"/>
         <v>4532</v>
       </c>
